--- a/rates/public/Abril 2025.xlsx
+++ b/rates/public/Abril 2025.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\tarifas\rates\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3612D7E-53FE-4B18-9FD5-8901C39F9C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C726EC3B-418A-40DC-BF5E-16CB8F7470AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="JUNIO" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$Q$447</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="60">
   <si>
     <t>PERIODO</t>
   </si>
@@ -209,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +224,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +274,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,9 +585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B413" sqref="B413:E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21594,14 +21622,29 @@
       <c r="E413" s="1">
         <v>1</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="4">
         <v>310.10000000000002</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H413" s="4">
+        <v>302.89</v>
+      </c>
+      <c r="I413" s="4">
+        <v>63.77</v>
+      </c>
+      <c r="J413" s="4">
+        <v>27.79</v>
       </c>
       <c r="K413">
         <v>43.2</v>
+      </c>
+      <c r="L413">
+        <v>809.95</v>
+      </c>
+      <c r="M413">
+        <v>809.95</v>
       </c>
       <c r="N413" s="3">
         <f t="shared" si="6"/>
@@ -21630,14 +21673,29 @@
       <c r="E414" s="1">
         <v>1</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="4">
         <v>310.10000000000002</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H414" s="4">
+        <v>276.36</v>
+      </c>
+      <c r="I414" s="4">
+        <v>63.77</v>
+      </c>
+      <c r="J414" s="4">
+        <v>27.79</v>
       </c>
       <c r="K414">
         <v>43.2</v>
+      </c>
+      <c r="L414">
+        <v>783.42000000000007</v>
+      </c>
+      <c r="M414">
+        <v>783.42000000000007</v>
       </c>
       <c r="N414" s="3">
         <f t="shared" si="6"/>
@@ -21666,14 +21724,29 @@
       <c r="E415" s="1">
         <v>1</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="4">
         <v>310.10000000000002</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H415" s="4">
+        <v>249.83</v>
+      </c>
+      <c r="I415" s="4">
+        <v>63.77</v>
+      </c>
+      <c r="J415" s="4">
+        <v>27.79</v>
       </c>
       <c r="K415">
         <v>43.2</v>
+      </c>
+      <c r="L415">
+        <v>756.89</v>
+      </c>
+      <c r="M415">
+        <v>756.89</v>
       </c>
       <c r="N415" s="3">
         <f t="shared" si="6"/>
@@ -21702,14 +21775,29 @@
       <c r="E416" s="1">
         <v>2</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="4">
         <v>310.10000000000002</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H416" s="4">
+        <v>192.38</v>
+      </c>
+      <c r="I416" s="4">
+        <v>21.87</v>
+      </c>
+      <c r="J416" s="4">
+        <v>66.959999999999994</v>
       </c>
       <c r="K416">
         <v>43.2</v>
+      </c>
+      <c r="L416">
+        <v>696.71000000000015</v>
+      </c>
+      <c r="M416">
+        <v>696.71000000000015</v>
       </c>
       <c r="N416" s="3">
         <f t="shared" si="6"/>
@@ -21738,14 +21826,29 @@
       <c r="E417" s="1">
         <v>3</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="4">
         <v>310.10000000000002</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H417" s="4">
+        <v>129.18</v>
+      </c>
+      <c r="I417" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="J417" s="4">
+        <v>59.41</v>
       </c>
       <c r="K417">
         <v>43.2</v>
+      </c>
+      <c r="L417">
+        <v>625.32000000000005</v>
+      </c>
+      <c r="M417">
+        <v>625.32000000000005</v>
       </c>
       <c r="N417" s="3">
         <f t="shared" si="6"/>
@@ -21774,8 +21877,29 @@
       <c r="E418" s="1">
         <v>1</v>
       </c>
-      <c r="G418">
+      <c r="F418" s="4">
+        <v>311.17</v>
+      </c>
+      <c r="G418" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H418" s="4">
+        <v>265.26</v>
+      </c>
+      <c r="I418" s="4">
+        <v>61.79</v>
+      </c>
+      <c r="J418" s="4">
+        <v>86.73</v>
+      </c>
+      <c r="K418">
+        <v>43.2</v>
+      </c>
+      <c r="L418">
+        <v>830.35</v>
+      </c>
+      <c r="M418">
+        <v>830.35</v>
       </c>
       <c r="N418" s="3">
         <f t="shared" si="6"/>
@@ -21804,8 +21928,29 @@
       <c r="E419" s="1">
         <v>1</v>
       </c>
-      <c r="G419">
+      <c r="F419" s="4">
+        <v>311.17</v>
+      </c>
+      <c r="G419" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H419" s="4">
+        <v>230.22</v>
+      </c>
+      <c r="I419" s="4">
+        <v>61.79</v>
+      </c>
+      <c r="J419" s="4">
+        <v>86.73</v>
+      </c>
+      <c r="K419">
+        <v>43.2</v>
+      </c>
+      <c r="L419">
+        <v>795.31000000000006</v>
+      </c>
+      <c r="M419">
+        <v>795.31000000000006</v>
       </c>
       <c r="N419" s="3">
         <f t="shared" si="6"/>
@@ -21834,8 +21979,29 @@
       <c r="E420" s="1">
         <v>1</v>
       </c>
-      <c r="G420">
+      <c r="F420" s="4">
+        <v>311.17</v>
+      </c>
+      <c r="G420" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H420" s="4">
+        <v>195.18</v>
+      </c>
+      <c r="I420" s="4">
+        <v>61.79</v>
+      </c>
+      <c r="J420" s="4">
+        <v>86.73</v>
+      </c>
+      <c r="K420">
+        <v>43.2</v>
+      </c>
+      <c r="L420">
+        <v>760.27</v>
+      </c>
+      <c r="M420">
+        <v>760.27</v>
       </c>
       <c r="N420" s="3">
         <f t="shared" si="6"/>
@@ -21864,8 +22030,29 @@
       <c r="E421" s="1">
         <v>2</v>
       </c>
-      <c r="G421">
+      <c r="F421" s="4">
+        <v>311.17</v>
+      </c>
+      <c r="G421" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H421" s="4">
+        <v>153.46</v>
+      </c>
+      <c r="I421" s="4">
+        <v>26.23</v>
+      </c>
+      <c r="J421" s="4">
+        <v>30.85</v>
+      </c>
+      <c r="K421">
+        <v>43.2</v>
+      </c>
+      <c r="L421">
+        <v>627.11000000000013</v>
+      </c>
+      <c r="M421">
+        <v>627.11000000000013</v>
       </c>
       <c r="N421" s="3">
         <f t="shared" si="6"/>
@@ -21894,8 +22081,29 @@
       <c r="E422" s="1">
         <v>3</v>
       </c>
-      <c r="G422">
+      <c r="F422" s="4">
+        <v>311.17</v>
+      </c>
+      <c r="G422" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H422" s="4">
+        <v>94.93</v>
+      </c>
+      <c r="I422" s="4">
+        <v>22.43</v>
+      </c>
+      <c r="J422" s="4">
+        <v>30.85</v>
+      </c>
+      <c r="K422">
+        <v>43.2</v>
+      </c>
+      <c r="L422">
+        <v>564.78000000000009</v>
+      </c>
+      <c r="M422">
+        <v>564.78000000000009</v>
       </c>
       <c r="N422" s="3">
         <f t="shared" si="6"/>
@@ -21924,8 +22132,29 @@
       <c r="E423" s="1">
         <v>1</v>
       </c>
-      <c r="G423">
+      <c r="F423" s="4">
+        <v>307.43</v>
+      </c>
+      <c r="G423" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H423" s="4">
+        <v>302.89</v>
+      </c>
+      <c r="I423" s="4">
+        <v>81.67</v>
+      </c>
+      <c r="J423" s="4">
+        <v>200.28</v>
+      </c>
+      <c r="K423">
+        <v>23.67</v>
+      </c>
+      <c r="L423">
+        <v>978.13999999999987</v>
+      </c>
+      <c r="M423">
+        <v>978.13999999999987</v>
       </c>
       <c r="N423" s="3">
         <f t="shared" si="6"/>
@@ -21954,8 +22183,29 @@
       <c r="E424" s="1">
         <v>1</v>
       </c>
-      <c r="G424">
+      <c r="F424" s="4">
+        <v>307.43</v>
+      </c>
+      <c r="G424" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H424" s="4">
+        <v>255.83</v>
+      </c>
+      <c r="I424" s="4">
+        <v>81.67</v>
+      </c>
+      <c r="J424" s="4">
+        <v>200.28</v>
+      </c>
+      <c r="K424">
+        <v>23.67</v>
+      </c>
+      <c r="L424">
+        <v>931.07999999999993</v>
+      </c>
+      <c r="M424">
+        <v>931.07999999999993</v>
       </c>
       <c r="N424" s="3">
         <f t="shared" si="6"/>
@@ -21984,8 +22234,29 @@
       <c r="E425" s="1">
         <v>1</v>
       </c>
-      <c r="G425">
+      <c r="F425" s="4">
+        <v>307.43</v>
+      </c>
+      <c r="G425" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H425" s="4">
+        <v>208.76</v>
+      </c>
+      <c r="I425" s="4">
+        <v>81.67</v>
+      </c>
+      <c r="J425" s="4">
+        <v>200.28</v>
+      </c>
+      <c r="K425">
+        <v>23.67</v>
+      </c>
+      <c r="L425">
+        <v>884.00999999999988</v>
+      </c>
+      <c r="M425">
+        <v>884.00999999999988</v>
       </c>
       <c r="N425" s="3">
         <f t="shared" si="6"/>
@@ -22014,8 +22285,29 @@
       <c r="E426" s="1">
         <v>2</v>
       </c>
-      <c r="G426">
+      <c r="F426" s="4">
+        <v>307.43</v>
+      </c>
+      <c r="G426" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H426" s="4">
+        <v>192.38</v>
+      </c>
+      <c r="I426" s="4">
+        <v>37.08</v>
+      </c>
+      <c r="J426" s="4">
+        <v>105.78</v>
+      </c>
+      <c r="K426">
+        <v>23.67</v>
+      </c>
+      <c r="L426">
+        <v>728.54</v>
+      </c>
+      <c r="M426">
+        <v>728.54</v>
       </c>
       <c r="N426" s="3">
         <f t="shared" si="6"/>
@@ -22044,8 +22336,29 @@
       <c r="E427" s="1">
         <v>3</v>
       </c>
-      <c r="G427">
+      <c r="F427" s="4">
+        <v>307.43</v>
+      </c>
+      <c r="G427" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H427" s="4">
+        <v>129.18</v>
+      </c>
+      <c r="I427" s="4">
+        <v>27.85</v>
+      </c>
+      <c r="J427" s="4">
+        <v>105.78</v>
+      </c>
+      <c r="K427">
+        <v>23.67</v>
+      </c>
+      <c r="L427">
+        <v>656.1099999999999</v>
+      </c>
+      <c r="M427">
+        <v>656.1099999999999</v>
       </c>
       <c r="N427" s="3">
         <f t="shared" si="6"/>
@@ -22074,8 +22387,29 @@
       <c r="E428" s="1">
         <v>1</v>
       </c>
-      <c r="G428">
+      <c r="F428" s="4">
+        <v>310.3</v>
+      </c>
+      <c r="G428" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H428" s="4">
+        <v>265.26</v>
+      </c>
+      <c r="I428" s="4">
+        <v>52.48</v>
+      </c>
+      <c r="J428" s="4">
+        <v>25.43</v>
+      </c>
+      <c r="K428">
+        <v>43.2</v>
+      </c>
+      <c r="L428">
+        <v>758.87</v>
+      </c>
+      <c r="M428">
+        <v>758.87</v>
       </c>
       <c r="N428" s="3">
         <f t="shared" si="6"/>
@@ -22104,8 +22438,29 @@
       <c r="E429" s="1">
         <v>1</v>
       </c>
-      <c r="G429">
+      <c r="F429" s="4">
+        <v>310.3</v>
+      </c>
+      <c r="G429" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H429" s="4">
+        <v>251.14</v>
+      </c>
+      <c r="I429" s="4">
+        <v>52.48</v>
+      </c>
+      <c r="J429" s="4">
+        <v>25.43</v>
+      </c>
+      <c r="K429">
+        <v>43.2</v>
+      </c>
+      <c r="L429">
+        <v>744.75</v>
+      </c>
+      <c r="M429">
+        <v>744.75</v>
       </c>
       <c r="N429" s="3">
         <f t="shared" si="6"/>
@@ -22134,8 +22489,29 @@
       <c r="E430" s="1">
         <v>1</v>
       </c>
-      <c r="G430">
+      <c r="F430" s="4">
+        <v>310.3</v>
+      </c>
+      <c r="G430" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H430" s="4">
+        <v>237.03</v>
+      </c>
+      <c r="I430" s="4">
+        <v>52.48</v>
+      </c>
+      <c r="J430" s="4">
+        <v>25.43</v>
+      </c>
+      <c r="K430">
+        <v>43.2</v>
+      </c>
+      <c r="L430">
+        <v>730.64</v>
+      </c>
+      <c r="M430">
+        <v>730.64</v>
       </c>
       <c r="N430" s="3">
         <f t="shared" si="6"/>
@@ -22164,8 +22540,29 @@
       <c r="E431" s="1">
         <v>2</v>
       </c>
-      <c r="G431">
+      <c r="F431" s="4">
+        <v>310.3</v>
+      </c>
+      <c r="G431" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H431" s="4">
+        <v>153.46</v>
+      </c>
+      <c r="I431" s="4">
+        <v>24.19</v>
+      </c>
+      <c r="J431" s="4">
+        <v>25.43</v>
+      </c>
+      <c r="K431">
+        <v>43.2</v>
+      </c>
+      <c r="L431">
+        <v>618.78000000000009</v>
+      </c>
+      <c r="M431">
+        <v>618.78000000000009</v>
       </c>
       <c r="N431" s="3">
         <f t="shared" si="6"/>
@@ -22194,8 +22591,29 @@
       <c r="E432" s="1">
         <v>3</v>
       </c>
-      <c r="G432">
+      <c r="F432" s="4">
+        <v>310.3</v>
+      </c>
+      <c r="G432" s="4">
         <v>62.2</v>
+      </c>
+      <c r="H432" s="4">
+        <v>94.93</v>
+      </c>
+      <c r="I432" s="4">
+        <v>22.61</v>
+      </c>
+      <c r="J432" s="4">
+        <v>25.43</v>
+      </c>
+      <c r="K432">
+        <v>43.2</v>
+      </c>
+      <c r="L432">
+        <v>558.67000000000007</v>
+      </c>
+      <c r="M432">
+        <v>558.67000000000007</v>
       </c>
       <c r="N432" s="3">
         <f t="shared" si="6"/>
@@ -22224,8 +22642,29 @@
       <c r="E433" s="1">
         <v>1</v>
       </c>
+      <c r="F433" s="4">
+        <v>281.39999999999998</v>
+      </c>
       <c r="G433">
         <v>62.2</v>
+      </c>
+      <c r="H433" s="4">
+        <v>322.13</v>
+      </c>
+      <c r="I433" s="4">
+        <v>61.35</v>
+      </c>
+      <c r="J433" s="4">
+        <v>120.03</v>
+      </c>
+      <c r="K433">
+        <v>43.2</v>
+      </c>
+      <c r="L433">
+        <v>890.31000000000006</v>
+      </c>
+      <c r="M433">
+        <v>890.31000000000006</v>
       </c>
       <c r="N433" s="3">
         <f t="shared" si="6"/>
@@ -22254,8 +22693,29 @@
       <c r="E434" s="1">
         <v>1</v>
       </c>
+      <c r="F434" s="4">
+        <v>281.39999999999998</v>
+      </c>
       <c r="G434">
         <v>62.2</v>
+      </c>
+      <c r="H434" s="4">
+        <v>286.70999999999998</v>
+      </c>
+      <c r="I434" s="4">
+        <v>61.35</v>
+      </c>
+      <c r="J434" s="4">
+        <v>120.03</v>
+      </c>
+      <c r="K434">
+        <v>43.2</v>
+      </c>
+      <c r="L434">
+        <v>854.89</v>
+      </c>
+      <c r="M434">
+        <v>854.89</v>
       </c>
       <c r="N434" s="3">
         <f t="shared" si="6"/>
@@ -22284,8 +22744,29 @@
       <c r="E435" s="1">
         <v>1</v>
       </c>
+      <c r="F435" s="4">
+        <v>281.39999999999998</v>
+      </c>
       <c r="G435">
         <v>62.2</v>
+      </c>
+      <c r="H435" s="4">
+        <v>251.3</v>
+      </c>
+      <c r="I435" s="4">
+        <v>61.35</v>
+      </c>
+      <c r="J435" s="4">
+        <v>120.03</v>
+      </c>
+      <c r="K435">
+        <v>43.2</v>
+      </c>
+      <c r="L435">
+        <v>819.48</v>
+      </c>
+      <c r="M435">
+        <v>819.48</v>
       </c>
       <c r="N435" s="3">
         <f t="shared" si="6"/>
@@ -22314,8 +22795,29 @@
       <c r="E436" s="1">
         <v>2</v>
       </c>
+      <c r="F436" s="4">
+        <v>281.39999999999998</v>
+      </c>
       <c r="G436">
         <v>62.2</v>
+      </c>
+      <c r="H436" s="4">
+        <v>207.54</v>
+      </c>
+      <c r="I436" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="J436" s="4">
+        <v>95.17</v>
+      </c>
+      <c r="K436">
+        <v>43.2</v>
+      </c>
+      <c r="L436">
+        <v>708.71</v>
+      </c>
+      <c r="M436">
+        <v>708.71</v>
       </c>
       <c r="N436" s="3">
         <f t="shared" si="6"/>
@@ -22344,8 +22846,29 @@
       <c r="E437" s="1">
         <v>3</v>
       </c>
+      <c r="F437" s="4">
+        <v>281.39999999999998</v>
+      </c>
       <c r="G437">
         <v>62.2</v>
+      </c>
+      <c r="H437" s="4">
+        <v>91.38</v>
+      </c>
+      <c r="I437" s="4">
+        <v>17.14</v>
+      </c>
+      <c r="J437" s="4">
+        <v>95.98</v>
+      </c>
+      <c r="K437">
+        <v>43.2</v>
+      </c>
+      <c r="L437">
+        <v>591.29999999999995</v>
+      </c>
+      <c r="M437">
+        <v>591.29999999999995</v>
       </c>
       <c r="N437" s="3">
         <f t="shared" si="6"/>
@@ -22374,8 +22897,29 @@
       <c r="E438" s="1">
         <v>1</v>
       </c>
+      <c r="F438" s="4">
+        <v>286.51679999999999</v>
+      </c>
       <c r="G438">
         <v>62.2</v>
+      </c>
+      <c r="H438" s="4">
+        <v>302.8913</v>
+      </c>
+      <c r="I438" s="4">
+        <v>60.075000000000003</v>
+      </c>
+      <c r="J438" s="4">
+        <v>80.038499999999999</v>
+      </c>
+      <c r="K438" s="4">
+        <v>39.3611</v>
+      </c>
+      <c r="L438">
+        <v>831.08269999999993</v>
+      </c>
+      <c r="M438">
+        <v>831.08269999999993</v>
       </c>
       <c r="N438" s="3">
         <f t="shared" si="6"/>
@@ -22404,8 +22948,29 @@
       <c r="E439" s="1">
         <v>1</v>
       </c>
+      <c r="F439" s="4">
+        <v>286.51679999999999</v>
+      </c>
       <c r="G439">
         <v>62.2</v>
+      </c>
+      <c r="H439" s="4">
+        <v>275.67869999999999</v>
+      </c>
+      <c r="I439" s="4">
+        <v>60.075000000000003</v>
+      </c>
+      <c r="J439" s="4">
+        <v>80.038499999999999</v>
+      </c>
+      <c r="K439" s="4">
+        <v>39.3611</v>
+      </c>
+      <c r="L439">
+        <v>803.87009999999998</v>
+      </c>
+      <c r="M439">
+        <v>803.87009999999998</v>
       </c>
       <c r="N439" s="3">
         <f t="shared" si="6"/>
@@ -22434,8 +22999,29 @@
       <c r="E440" s="1">
         <v>1</v>
       </c>
+      <c r="F440" s="4">
+        <v>286.51679999999999</v>
+      </c>
       <c r="G440">
         <v>62.2</v>
+      </c>
+      <c r="H440" s="4">
+        <v>248.46610000000001</v>
+      </c>
+      <c r="I440" s="4">
+        <v>60.075000000000003</v>
+      </c>
+      <c r="J440" s="4">
+        <v>80.038499999999999</v>
+      </c>
+      <c r="K440" s="4">
+        <v>39.3611</v>
+      </c>
+      <c r="L440">
+        <v>776.65750000000003</v>
+      </c>
+      <c r="M440">
+        <v>776.65750000000003</v>
       </c>
       <c r="N440" s="3">
         <f t="shared" si="6"/>
@@ -22464,8 +23050,29 @@
       <c r="E441" s="1">
         <v>2</v>
       </c>
+      <c r="F441" s="4">
+        <v>286.51679999999999</v>
+      </c>
       <c r="G441">
         <v>62.2</v>
+      </c>
+      <c r="H441" s="4">
+        <v>192.3819</v>
+      </c>
+      <c r="I441" s="4">
+        <v>20.816299999999998</v>
+      </c>
+      <c r="J441" s="4">
+        <v>119.2085</v>
+      </c>
+      <c r="K441" s="4">
+        <v>39.3611</v>
+      </c>
+      <c r="L441">
+        <v>720.48459999999989</v>
+      </c>
+      <c r="M441">
+        <v>720.48459999999989</v>
       </c>
       <c r="N441" s="3">
         <f t="shared" si="6"/>
@@ -22494,8 +23101,29 @@
       <c r="E442" s="1">
         <v>3</v>
       </c>
+      <c r="F442" s="4">
+        <v>286.51679999999999</v>
+      </c>
       <c r="G442">
         <v>62.2</v>
+      </c>
+      <c r="H442" s="4">
+        <v>129.18109999999999</v>
+      </c>
+      <c r="I442" s="4">
+        <v>20.218</v>
+      </c>
+      <c r="J442" s="4">
+        <v>111.6585</v>
+      </c>
+      <c r="K442" s="4">
+        <v>39.3611</v>
+      </c>
+      <c r="L442">
+        <v>649.13549999999998</v>
+      </c>
+      <c r="M442">
+        <v>649.13549999999998</v>
       </c>
       <c r="N442" s="3">
         <f t="shared" si="6"/>
@@ -22524,8 +23152,29 @@
       <c r="E443" s="1">
         <v>1</v>
       </c>
+      <c r="F443" s="4">
+        <v>303.41000000000003</v>
+      </c>
       <c r="G443">
         <v>62.2</v>
+      </c>
+      <c r="H443" s="4">
+        <v>269.61</v>
+      </c>
+      <c r="I443" s="4">
+        <v>58.82</v>
+      </c>
+      <c r="J443" s="4">
+        <v>144.22999999999999</v>
+      </c>
+      <c r="K443" s="4">
+        <v>44.57</v>
+      </c>
+      <c r="L443">
+        <v>882.84000000000015</v>
+      </c>
+      <c r="M443">
+        <v>882.84000000000015</v>
       </c>
       <c r="N443" s="3">
         <f t="shared" si="6"/>
@@ -22554,8 +23203,29 @@
       <c r="E444" s="1">
         <v>1</v>
       </c>
+      <c r="F444" s="4">
+        <v>303.41000000000003</v>
+      </c>
       <c r="G444">
         <v>62.2</v>
+      </c>
+      <c r="H444" s="4">
+        <v>253.6</v>
+      </c>
+      <c r="I444" s="4">
+        <v>58.82</v>
+      </c>
+      <c r="J444" s="4">
+        <v>144.22999999999999</v>
+      </c>
+      <c r="K444" s="4">
+        <v>44.57</v>
+      </c>
+      <c r="L444">
+        <v>866.83000000000015</v>
+      </c>
+      <c r="M444">
+        <v>866.83000000000015</v>
       </c>
       <c r="N444" s="3">
         <f t="shared" si="6"/>
@@ -22584,8 +23254,29 @@
       <c r="E445" s="1">
         <v>1</v>
       </c>
+      <c r="F445" s="4">
+        <v>303.41000000000003</v>
+      </c>
       <c r="G445">
         <v>62.2</v>
+      </c>
+      <c r="H445" s="4">
+        <v>237.58</v>
+      </c>
+      <c r="I445" s="4">
+        <v>58.82</v>
+      </c>
+      <c r="J445" s="4">
+        <v>144.22999999999999</v>
+      </c>
+      <c r="K445" s="4">
+        <v>44.57</v>
+      </c>
+      <c r="L445">
+        <v>850.81000000000017</v>
+      </c>
+      <c r="M445">
+        <v>850.81000000000017</v>
       </c>
       <c r="N445" s="3">
         <f t="shared" si="6"/>
@@ -22614,8 +23305,29 @@
       <c r="E446" s="1">
         <v>2</v>
       </c>
+      <c r="F446" s="4">
+        <v>303.41000000000003</v>
+      </c>
       <c r="G446">
         <v>62.2</v>
+      </c>
+      <c r="H446" s="4">
+        <v>179.46</v>
+      </c>
+      <c r="I446" s="4">
+        <v>27.05</v>
+      </c>
+      <c r="J446" s="4">
+        <v>137.74</v>
+      </c>
+      <c r="K446" s="4">
+        <v>44.57</v>
+      </c>
+      <c r="L446">
+        <v>754.43000000000006</v>
+      </c>
+      <c r="M446">
+        <v>754.43000000000006</v>
       </c>
       <c r="N446" s="3">
         <f t="shared" si="6"/>
@@ -22644,8 +23356,29 @@
       <c r="E447" s="1">
         <v>3</v>
       </c>
+      <c r="F447" s="4">
+        <v>303.41000000000003</v>
+      </c>
       <c r="G447">
         <v>62.2</v>
+      </c>
+      <c r="H447" s="4">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="I447" s="4">
+        <v>21.28</v>
+      </c>
+      <c r="J447" s="4">
+        <v>122.01</v>
+      </c>
+      <c r="K447" s="4">
+        <v>44.57</v>
+      </c>
+      <c r="L447">
+        <v>633.29000000000008</v>
+      </c>
+      <c r="M447">
+        <v>633.29000000000008</v>
       </c>
       <c r="N447" s="3">
         <f t="shared" si="6"/>
@@ -22674,8 +23407,29 @@
       <c r="E448" s="1">
         <v>1</v>
       </c>
+      <c r="F448" s="4">
+        <v>304.26</v>
+      </c>
       <c r="G448">
         <v>62.2</v>
+      </c>
+      <c r="H448" s="4">
+        <v>322.13</v>
+      </c>
+      <c r="I448" s="4">
+        <v>60.28</v>
+      </c>
+      <c r="J448" s="4">
+        <v>179.01</v>
+      </c>
+      <c r="K448" s="4">
+        <v>46.44</v>
+      </c>
+      <c r="L448">
+        <v>974.31999999999994</v>
+      </c>
+      <c r="M448">
+        <v>974.31999999999994</v>
       </c>
       <c r="N448" s="3">
         <f t="shared" ref="N448:N457" si="7">G448-62.2</f>
@@ -22704,8 +23458,29 @@
       <c r="E449" s="1">
         <v>1</v>
       </c>
+      <c r="F449" s="4">
+        <v>304.26</v>
+      </c>
       <c r="G449">
         <v>62.2</v>
+      </c>
+      <c r="H449" s="4">
+        <v>276.27</v>
+      </c>
+      <c r="I449" s="4">
+        <v>60.28</v>
+      </c>
+      <c r="J449" s="4">
+        <v>179.01</v>
+      </c>
+      <c r="K449" s="4">
+        <v>46.44</v>
+      </c>
+      <c r="L449">
+        <v>928.46</v>
+      </c>
+      <c r="M449">
+        <v>928.46</v>
       </c>
       <c r="N449" s="3">
         <f t="shared" si="7"/>
@@ -22734,8 +23509,29 @@
       <c r="E450" s="1">
         <v>1</v>
       </c>
+      <c r="F450" s="4">
+        <v>304.26</v>
+      </c>
       <c r="G450">
         <v>62.2</v>
+      </c>
+      <c r="H450" s="4">
+        <v>299.2</v>
+      </c>
+      <c r="I450" s="4">
+        <v>60.28</v>
+      </c>
+      <c r="J450" s="4">
+        <v>179.01</v>
+      </c>
+      <c r="K450" s="4">
+        <v>46.44</v>
+      </c>
+      <c r="L450">
+        <v>951.38999999999987</v>
+      </c>
+      <c r="M450">
+        <v>951.38999999999987</v>
       </c>
       <c r="N450" s="3">
         <f t="shared" si="7"/>
@@ -22764,8 +23560,29 @@
       <c r="E451" s="1">
         <v>2</v>
       </c>
+      <c r="F451" s="4">
+        <v>304.26</v>
+      </c>
       <c r="G451">
         <v>62.2</v>
+      </c>
+      <c r="H451" s="4">
+        <v>207.54</v>
+      </c>
+      <c r="I451" s="4">
+        <v>25.86</v>
+      </c>
+      <c r="J451" s="4">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="K451" s="4">
+        <v>46.44</v>
+      </c>
+      <c r="L451">
+        <v>799.69</v>
+      </c>
+      <c r="M451">
+        <v>799.69</v>
       </c>
       <c r="N451" s="3">
         <f t="shared" si="7"/>
@@ -22794,8 +23611,29 @@
       <c r="E452" s="1">
         <v>3</v>
       </c>
+      <c r="F452" s="4">
+        <v>304.26</v>
+      </c>
       <c r="G452">
         <v>62.2</v>
+      </c>
+      <c r="H452" s="4">
+        <v>91.38</v>
+      </c>
+      <c r="I452" s="4">
+        <v>19.82</v>
+      </c>
+      <c r="J452" s="4">
+        <v>133.63</v>
+      </c>
+      <c r="K452" s="4">
+        <v>46.44</v>
+      </c>
+      <c r="L452">
+        <v>657.73</v>
+      </c>
+      <c r="M452">
+        <v>657.73</v>
       </c>
       <c r="N452" s="3">
         <f t="shared" si="7"/>
@@ -22824,8 +23662,29 @@
       <c r="E453" s="1">
         <v>1</v>
       </c>
+      <c r="F453" s="4">
+        <v>302.23379999999997</v>
+      </c>
       <c r="G453">
         <v>62.2</v>
+      </c>
+      <c r="H453" s="4">
+        <v>322.13389999999998</v>
+      </c>
+      <c r="I453" s="4">
+        <v>58.078499999999998</v>
+      </c>
+      <c r="J453" s="4">
+        <v>24.565000000000001</v>
+      </c>
+      <c r="K453" s="4">
+        <v>40.465200000000003</v>
+      </c>
+      <c r="L453">
+        <v>809.67639999999994</v>
+      </c>
+      <c r="M453">
+        <v>809.67639999999994</v>
       </c>
       <c r="N453" s="3">
         <f t="shared" si="7"/>
@@ -22854,8 +23713,29 @@
       <c r="E454" s="1">
         <v>1</v>
       </c>
+      <c r="F454" s="4">
+        <v>302.23379999999997</v>
+      </c>
       <c r="G454">
         <v>62.2</v>
+      </c>
+      <c r="H454" s="4">
+        <v>275.61040000000003</v>
+      </c>
+      <c r="I454" s="4">
+        <v>58.078499999999998</v>
+      </c>
+      <c r="J454" s="4">
+        <v>24.565000000000001</v>
+      </c>
+      <c r="K454" s="4">
+        <v>40.465200000000003</v>
+      </c>
+      <c r="L454">
+        <v>763.15290000000005</v>
+      </c>
+      <c r="M454">
+        <v>763.15290000000005</v>
       </c>
       <c r="N454" s="3">
         <f t="shared" si="7"/>
@@ -22884,8 +23764,29 @@
       <c r="E455" s="1">
         <v>1</v>
       </c>
+      <c r="F455" s="4">
+        <v>302.23379999999997</v>
+      </c>
       <c r="G455">
         <v>62.2</v>
+      </c>
+      <c r="H455" s="4">
+        <v>298.87220000000002</v>
+      </c>
+      <c r="I455" s="4">
+        <v>58.078499999999998</v>
+      </c>
+      <c r="J455" s="4">
+        <v>24.565000000000001</v>
+      </c>
+      <c r="K455" s="4">
+        <v>40.465200000000003</v>
+      </c>
+      <c r="L455">
+        <v>786.41470000000004</v>
+      </c>
+      <c r="M455">
+        <v>786.41470000000004</v>
       </c>
       <c r="N455" s="3">
         <f t="shared" si="7"/>
@@ -22914,8 +23815,29 @@
       <c r="E456" s="1">
         <v>2</v>
       </c>
+      <c r="F456" s="4">
+        <v>302.23379999999997</v>
+      </c>
       <c r="G456">
         <v>62.2</v>
+      </c>
+      <c r="H456" s="4">
+        <v>207.5394</v>
+      </c>
+      <c r="I456" s="4">
+        <v>24.623899999999999</v>
+      </c>
+      <c r="J456" s="4">
+        <v>24.565000000000001</v>
+      </c>
+      <c r="K456" s="4">
+        <v>40.465200000000003</v>
+      </c>
+      <c r="L456">
+        <v>661.62729999999999</v>
+      </c>
+      <c r="M456">
+        <v>661.62729999999999</v>
       </c>
       <c r="N456" s="3">
         <f t="shared" si="7"/>
@@ -22944,8 +23866,29 @@
       <c r="E457" s="1">
         <v>3</v>
       </c>
+      <c r="F457" s="4">
+        <v>302.23379999999997</v>
+      </c>
       <c r="G457">
         <v>62.2</v>
+      </c>
+      <c r="H457" s="4">
+        <v>91.379000000000005</v>
+      </c>
+      <c r="I457" s="4">
+        <v>21.645099999999999</v>
+      </c>
+      <c r="J457" s="4">
+        <v>24.565000000000001</v>
+      </c>
+      <c r="K457" s="4">
+        <v>40.465200000000003</v>
+      </c>
+      <c r="L457">
+        <v>542.48810000000003</v>
+      </c>
+      <c r="M457">
+        <v>542.48810000000003</v>
       </c>
       <c r="N457" s="3">
         <f t="shared" si="7"/>
@@ -22963,4 +23906,1139 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D059498-E32D-436C-9AAD-C430E788F762}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>63.77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8">
+        <v>245.74</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>268.54000000000002</v>
+      </c>
+      <c r="G2" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H2" s="5">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="I2" s="5">
+        <v>55.37</v>
+      </c>
+      <c r="J2" s="5">
+        <v>25.46</v>
+      </c>
+      <c r="K2" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SUM(F2:K2)</f>
+        <v>743.41000000000008</v>
+      </c>
+      <c r="M2" s="5">
+        <f>L2+0</f>
+        <v>743.41000000000008</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N21" si="0">G3-62.2</f>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>268.54000000000002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H3" s="5">
+        <v>273.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>55.37</v>
+      </c>
+      <c r="J3" s="5">
+        <v>25.46</v>
+      </c>
+      <c r="K3" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L21" si="1">SUM(F3:K3)</f>
+        <v>717.06000000000006</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M21" si="2">L3+0</f>
+        <v>717.06000000000006</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>268.54000000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H4" s="5">
+        <v>247.15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>55.37</v>
+      </c>
+      <c r="J4" s="5">
+        <v>25.46</v>
+      </c>
+      <c r="K4" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>690.71</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="2"/>
+        <v>690.71</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>268.54000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H5" s="5">
+        <v>187.57</v>
+      </c>
+      <c r="I5" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>56.44</v>
+      </c>
+      <c r="K5" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="1"/>
+        <v>625.83999999999992</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="2"/>
+        <v>625.83999999999992</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>268.54000000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H6" s="5">
+        <v>126.93</v>
+      </c>
+      <c r="I6" s="5">
+        <v>18.53</v>
+      </c>
+      <c r="J6" s="5">
+        <v>56.19</v>
+      </c>
+      <c r="K6" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>564.38000000000011</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>564.38000000000011</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>269.3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H7" s="5">
+        <v>266.01</v>
+      </c>
+      <c r="I7" s="5">
+        <v>54.2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>85.52</v>
+      </c>
+      <c r="K7" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>769.22</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="2"/>
+        <v>769.22</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>269.3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H8" s="5">
+        <v>230.61</v>
+      </c>
+      <c r="I8" s="5">
+        <v>54.2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>85.52</v>
+      </c>
+      <c r="K8" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>733.82</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
+        <v>733.82</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>269.3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H9" s="5">
+        <v>195.21</v>
+      </c>
+      <c r="I9" s="5">
+        <v>54.2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>85.52</v>
+      </c>
+      <c r="K9" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>698.42000000000007</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="2"/>
+        <v>698.42000000000007</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>269.3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H10" s="5">
+        <v>154.28</v>
+      </c>
+      <c r="I10" s="5">
+        <v>23.44</v>
+      </c>
+      <c r="J10" s="5">
+        <v>29.58</v>
+      </c>
+      <c r="K10" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>570.79</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="2"/>
+        <v>570.79</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>269.3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H11" s="5">
+        <v>95.15</v>
+      </c>
+      <c r="I11" s="5">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>29.58</v>
+      </c>
+      <c r="K11" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="1"/>
+        <v>508.39</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="2"/>
+        <v>508.39</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>307.02999999999997</v>
+      </c>
+      <c r="G12" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H12" s="5">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="I12" s="5">
+        <v>79.58</v>
+      </c>
+      <c r="J12" s="5">
+        <v>217.19</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45.23</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>1003.5699999999999</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="2"/>
+        <v>1003.5699999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>307.02999999999997</v>
+      </c>
+      <c r="G13" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H13" s="5">
+        <v>252.49</v>
+      </c>
+      <c r="I13" s="5">
+        <v>79.58</v>
+      </c>
+      <c r="J13" s="5">
+        <v>217.19</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45.23</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>956.21</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="2"/>
+        <v>956.21</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>307.02999999999997</v>
+      </c>
+      <c r="G14" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H14" s="5">
+        <v>205.13</v>
+      </c>
+      <c r="I14" s="5">
+        <v>79.58</v>
+      </c>
+      <c r="J14" s="5">
+        <v>217.19</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45.23</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>908.84999999999991</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="2"/>
+        <v>908.84999999999991</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>307.02999999999997</v>
+      </c>
+      <c r="G15" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H15" s="5">
+        <v>187.57</v>
+      </c>
+      <c r="I15" s="5">
+        <v>35.92</v>
+      </c>
+      <c r="J15" s="5">
+        <v>111.83</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45.23</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="1"/>
+        <v>742.27</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="2"/>
+        <v>742.27</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>307.02999999999997</v>
+      </c>
+      <c r="G16" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H16" s="5">
+        <v>126.93</v>
+      </c>
+      <c r="I16" s="5">
+        <v>26.89</v>
+      </c>
+      <c r="J16" s="5">
+        <v>111.83</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45.23</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="1"/>
+        <v>672.6</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="2"/>
+        <v>672.6</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>269.68</v>
+      </c>
+      <c r="G17" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H17" s="5">
+        <v>266.01</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45.73</v>
+      </c>
+      <c r="J17" s="5">
+        <v>22.44</v>
+      </c>
+      <c r="K17" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="1"/>
+        <v>698.05000000000007</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="2"/>
+        <v>698.05000000000007</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>269.68</v>
+      </c>
+      <c r="G18" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H18" s="5">
+        <v>251.8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45.73</v>
+      </c>
+      <c r="J18" s="5">
+        <v>22.44</v>
+      </c>
+      <c r="K18" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="1"/>
+        <v>683.84000000000015</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="2"/>
+        <v>683.84000000000015</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>269.68</v>
+      </c>
+      <c r="G19" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H19" s="5">
+        <v>237.58</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45.73</v>
+      </c>
+      <c r="J19" s="5">
+        <v>22.44</v>
+      </c>
+      <c r="K19" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="1"/>
+        <v>669.62000000000012</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="2"/>
+        <v>669.62000000000012</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>269.68</v>
+      </c>
+      <c r="G20" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="H20" s="5">
+        <v>154.28</v>
+      </c>
+      <c r="I20" s="5">
+        <v>21.17</v>
+      </c>
+      <c r="J20" s="5">
+        <v>22.44</v>
+      </c>
+      <c r="K20" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="1"/>
+        <v>561.76</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="2"/>
+        <v>561.76</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.5100000000000051</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>269.68</v>
+      </c>
+      <c r="G21" s="4">
+        <v>54.69</v>
+      </c>
+      <c r="H21" s="4">
+        <v>95.15</v>
+      </c>
+      <c r="I21" s="4">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>22.44</v>
+      </c>
+      <c r="K21">
+        <v>39.5</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>501.27</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>501.27</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
+        <v>-62.2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I24" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rates/public/Abril 2025.xlsx
+++ b/rates/public/Abril 2025.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\tarifas\rates\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C726EC3B-418A-40DC-BF5E-16CB8F7470AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E1D8A-609A-42D5-9FFB-119B538CDD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="JUNIO" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$Q$447</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="60">
   <si>
     <t>PERIODO</t>
   </si>
@@ -210,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,33 +223,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,12 +254,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,9 +558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P457"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B413" sqref="B413:E457"/>
+      <selection pane="bottomLeft" activeCell="K414" sqref="K414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23906,1139 +23879,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D059498-E32D-436C-9AAD-C430E788F762}">
-  <dimension ref="A1:Q24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>63.77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="8">
-        <v>245.74</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>268.54000000000002</v>
-      </c>
-      <c r="G2" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H2" s="5">
-        <v>299.85000000000002</v>
-      </c>
-      <c r="I2" s="5">
-        <v>55.37</v>
-      </c>
-      <c r="J2" s="5">
-        <v>25.46</v>
-      </c>
-      <c r="K2" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L2" s="5">
-        <f>SUM(F2:K2)</f>
-        <v>743.41000000000008</v>
-      </c>
-      <c r="M2" s="5">
-        <f>L2+0</f>
-        <v>743.41000000000008</v>
-      </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:N21" si="0">G3-62.2</f>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>268.54000000000002</v>
-      </c>
-      <c r="G3" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H3" s="5">
-        <v>273.5</v>
-      </c>
-      <c r="I3" s="5">
-        <v>55.37</v>
-      </c>
-      <c r="J3" s="5">
-        <v>25.46</v>
-      </c>
-      <c r="K3" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L21" si="1">SUM(F3:K3)</f>
-        <v>717.06000000000006</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ref="M3:M21" si="2">L3+0</f>
-        <v>717.06000000000006</v>
-      </c>
-      <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>268.54000000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H4" s="5">
-        <v>247.15</v>
-      </c>
-      <c r="I4" s="5">
-        <v>55.37</v>
-      </c>
-      <c r="J4" s="5">
-        <v>25.46</v>
-      </c>
-      <c r="K4" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="1"/>
-        <v>690.71</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="2"/>
-        <v>690.71</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>268.54000000000002</v>
-      </c>
-      <c r="G5" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H5" s="5">
-        <v>187.57</v>
-      </c>
-      <c r="I5" s="5">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="J5" s="5">
-        <v>56.44</v>
-      </c>
-      <c r="K5" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="1"/>
-        <v>625.83999999999992</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="2"/>
-        <v>625.83999999999992</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>268.54000000000002</v>
-      </c>
-      <c r="G6" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H6" s="5">
-        <v>126.93</v>
-      </c>
-      <c r="I6" s="5">
-        <v>18.53</v>
-      </c>
-      <c r="J6" s="5">
-        <v>56.19</v>
-      </c>
-      <c r="K6" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="1"/>
-        <v>564.38000000000011</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="2"/>
-        <v>564.38000000000011</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>269.3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H7" s="5">
-        <v>266.01</v>
-      </c>
-      <c r="I7" s="5">
-        <v>54.2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>85.52</v>
-      </c>
-      <c r="K7" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="1"/>
-        <v>769.22</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="2"/>
-        <v>769.22</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>269.3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H8" s="5">
-        <v>230.61</v>
-      </c>
-      <c r="I8" s="5">
-        <v>54.2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>85.52</v>
-      </c>
-      <c r="K8" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="1"/>
-        <v>733.82</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="2"/>
-        <v>733.82</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>269.3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H9" s="5">
-        <v>195.21</v>
-      </c>
-      <c r="I9" s="5">
-        <v>54.2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>85.52</v>
-      </c>
-      <c r="K9" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="1"/>
-        <v>698.42000000000007</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="2"/>
-        <v>698.42000000000007</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>269.3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H10" s="5">
-        <v>154.28</v>
-      </c>
-      <c r="I10" s="5">
-        <v>23.44</v>
-      </c>
-      <c r="J10" s="5">
-        <v>29.58</v>
-      </c>
-      <c r="K10" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="1"/>
-        <v>570.79</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="2"/>
-        <v>570.79</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>269.3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H11" s="5">
-        <v>95.15</v>
-      </c>
-      <c r="I11" s="5">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="J11" s="5">
-        <v>29.58</v>
-      </c>
-      <c r="K11" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="1"/>
-        <v>508.39</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="2"/>
-        <v>508.39</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>307.02999999999997</v>
-      </c>
-      <c r="G12" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H12" s="5">
-        <v>299.85000000000002</v>
-      </c>
-      <c r="I12" s="5">
-        <v>79.58</v>
-      </c>
-      <c r="J12" s="5">
-        <v>217.19</v>
-      </c>
-      <c r="K12" s="5">
-        <v>45.23</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="1"/>
-        <v>1003.5699999999999</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="2"/>
-        <v>1003.5699999999999</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>307.02999999999997</v>
-      </c>
-      <c r="G13" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H13" s="5">
-        <v>252.49</v>
-      </c>
-      <c r="I13" s="5">
-        <v>79.58</v>
-      </c>
-      <c r="J13" s="5">
-        <v>217.19</v>
-      </c>
-      <c r="K13" s="5">
-        <v>45.23</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="1"/>
-        <v>956.21</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="2"/>
-        <v>956.21</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>307.02999999999997</v>
-      </c>
-      <c r="G14" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H14" s="5">
-        <v>205.13</v>
-      </c>
-      <c r="I14" s="5">
-        <v>79.58</v>
-      </c>
-      <c r="J14" s="5">
-        <v>217.19</v>
-      </c>
-      <c r="K14" s="5">
-        <v>45.23</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="1"/>
-        <v>908.84999999999991</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="2"/>
-        <v>908.84999999999991</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O14" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>307.02999999999997</v>
-      </c>
-      <c r="G15" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H15" s="5">
-        <v>187.57</v>
-      </c>
-      <c r="I15" s="5">
-        <v>35.92</v>
-      </c>
-      <c r="J15" s="5">
-        <v>111.83</v>
-      </c>
-      <c r="K15" s="5">
-        <v>45.23</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="1"/>
-        <v>742.27</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="2"/>
-        <v>742.27</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>307.02999999999997</v>
-      </c>
-      <c r="G16" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H16" s="5">
-        <v>126.93</v>
-      </c>
-      <c r="I16" s="5">
-        <v>26.89</v>
-      </c>
-      <c r="J16" s="5">
-        <v>111.83</v>
-      </c>
-      <c r="K16" s="5">
-        <v>45.23</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="1"/>
-        <v>672.6</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="2"/>
-        <v>672.6</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O16" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>269.68</v>
-      </c>
-      <c r="G17" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H17" s="5">
-        <v>266.01</v>
-      </c>
-      <c r="I17" s="5">
-        <v>45.73</v>
-      </c>
-      <c r="J17" s="5">
-        <v>22.44</v>
-      </c>
-      <c r="K17" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="1"/>
-        <v>698.05000000000007</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="2"/>
-        <v>698.05000000000007</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>269.68</v>
-      </c>
-      <c r="G18" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H18" s="5">
-        <v>251.8</v>
-      </c>
-      <c r="I18" s="5">
-        <v>45.73</v>
-      </c>
-      <c r="J18" s="5">
-        <v>22.44</v>
-      </c>
-      <c r="K18" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="1"/>
-        <v>683.84000000000015</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="2"/>
-        <v>683.84000000000015</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O18" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>269.68</v>
-      </c>
-      <c r="G19" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H19" s="5">
-        <v>237.58</v>
-      </c>
-      <c r="I19" s="5">
-        <v>45.73</v>
-      </c>
-      <c r="J19" s="5">
-        <v>22.44</v>
-      </c>
-      <c r="K19" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="1"/>
-        <v>669.62000000000012</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="2"/>
-        <v>669.62000000000012</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>269.68</v>
-      </c>
-      <c r="G20" s="5">
-        <v>54.69</v>
-      </c>
-      <c r="H20" s="5">
-        <v>154.28</v>
-      </c>
-      <c r="I20" s="5">
-        <v>21.17</v>
-      </c>
-      <c r="J20" s="5">
-        <v>22.44</v>
-      </c>
-      <c r="K20" s="5">
-        <v>39.5</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="1"/>
-        <v>561.76</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="2"/>
-        <v>561.76</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.5100000000000051</v>
-      </c>
-      <c r="O20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4">
-        <v>269.68</v>
-      </c>
-      <c r="G21" s="4">
-        <v>54.69</v>
-      </c>
-      <c r="H21" s="4">
-        <v>95.15</v>
-      </c>
-      <c r="I21" s="4">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="J21" s="4">
-        <v>22.44</v>
-      </c>
-      <c r="K21">
-        <v>39.5</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>501.27</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>501.27</v>
-      </c>
-      <c r="N21" s="3">
-        <f t="shared" si="0"/>
-        <v>-62.2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I24" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>